--- a/data/factors/factor2.xlsx
+++ b/data/factors/factor2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0803\data\factors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mseun\OneDrive\바탕 화면\띵&amp;유 인벤토리\3 ~ [최종 결과 모음]\작업중 - 0808\data\factors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F8DB8A-BA79-4DD3-9980-38476EC2B8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B280B710-61E2-47B4-A2CB-111992BA77EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{F6ED42B6-41F5-4A17-BAB9-6C212EE58FF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>매일유업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
   </si>
   <si>
     <t>이마트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DN오토모티브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -579,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8D225E-320A-4B1F-849C-964F3DB1401F}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -598,12 +594,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.6">
@@ -633,161 +629,156 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A40" t="s">
         <v>2</v>
       </c>
     </row>
